--- a/QuizAppUsecases.xlsx
+++ b/QuizAppUsecases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gits\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1C6D2-0311-4CA7-A06C-1E1FE7F13809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Revision History</t>
   </si>
@@ -44,33 +45,144 @@
     <t>Reviewed by</t>
   </si>
   <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>Bejesh Sriram</t>
+  </si>
+  <si>
+    <t>A student can register themself in the website and take exams.</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
     <t>Use Case Id</t>
   </si>
   <si>
+    <t>UC001</t>
+  </si>
+  <si>
     <t>Use Case Name</t>
   </si>
   <si>
+    <t>Student Exam Module</t>
+  </si>
+  <si>
     <t>Brief Description</t>
   </si>
   <si>
+    <t>A Student Exam Module is where student register their loggin and attend exam</t>
+  </si>
+  <si>
     <t>Actor(s)</t>
   </si>
   <si>
+    <t>Admin, Student, Employee, Server</t>
+  </si>
+  <si>
     <t>Basic Flow</t>
   </si>
   <si>
+    <t>1. Student opens the current website</t>
+  </si>
+  <si>
+    <t>2. Student selects Signup and Student Options</t>
+  </si>
+  <si>
+    <t>3. Student entes valid details and registers successfully.</t>
+  </si>
+  <si>
+    <t>4. Student Signin using those credentials.</t>
+  </si>
+  <si>
+    <t>5. Student enters a vaid voucher code.</t>
+  </si>
+  <si>
+    <t>6. Student selects a desired exam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Student clicks on start exam </t>
+  </si>
+  <si>
+    <t>8. Student can attend the complete exam and submit the test.</t>
+  </si>
+  <si>
+    <t>9. Student can optionally give feedback on the exam or close the exam.</t>
+  </si>
+  <si>
     <t>Alternate Flows</t>
   </si>
   <si>
+    <t>Alternate Flow 1: Invalid credentials while signup</t>
+  </si>
+  <si>
+    <t>Students select signup and student 
+If there are any error in the entering credentials,
+The sign up button won't work as expected.
+Student can
+Clear all input and type the correct credentials again.</t>
+  </si>
+  <si>
+    <t>Alternate Flow 2: Invalid credentials while sign in</t>
+  </si>
+  <si>
+    <t>Students select signup and student ,
+And registers using valid credentials.
+Student tries to sign in using wrong credentials
+if email is wrong
+"Invalid email" is prompted
+if  password is wrong
+"Invalid password" is prompted
+Student can
+Try again correct credentials again.
+Click on Forget Password if they  forgot the password</t>
+  </si>
+  <si>
+    <t>Alternate Flow 3: Invalid Voucher Number</t>
+  </si>
+  <si>
+    <t>Students select signup and student ,
+And registers using valid credentials.
+Student signed in using correct credentials
+Student enters a wrong Voucher number
+"Invalid Voucher" is prompted
+Student can
+Try again correct Voucher Number</t>
+  </si>
+  <si>
+    <t>Alternate Flow 4: Selects wrong Exam</t>
+  </si>
+  <si>
+    <t>Students select signup and student ,
+And registers using valid credentials.
+Student signed in using correct credentials
+Student enters the correct Voucher number
+But Select the wrong exam from the list
+Student can
+Click back on the next instruction page
+or proceed to Start the Exam</t>
+  </si>
+  <si>
     <t>Pre-Conditions</t>
   </si>
   <si>
+    <t>Browser Installed
+Stable Internet connection</t>
+  </si>
+  <si>
     <t>Post-Conditions</t>
   </si>
   <si>
+    <t>Exam is finished and submitted successfully.</t>
+  </si>
+  <si>
     <t>Extension Points</t>
   </si>
   <si>
+    <t>There can be a Profile page after logging in, to see or change the personal details.</t>
+  </si>
+  <si>
     <t>Use Case name</t>
   </si>
   <si>
@@ -81,61 +193,23 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>UC001</t>
-  </si>
-  <si>
-    <t>Student Exam Module</t>
-  </si>
-  <si>
-    <t>A Student Exam Module is where student register their loggin and attend exam</t>
-  </si>
-  <si>
-    <t>Admin, Student, Employee, Server</t>
-  </si>
-  <si>
-    <t>1. Student opens the current website</t>
-  </si>
-  <si>
-    <t>2. Student selects Signup and Student Options</t>
-  </si>
-  <si>
-    <t>3. Student entes valid details and registers successfully.</t>
-  </si>
-  <si>
-    <t>4. Student signins using the valid credentials</t>
-  </si>
-  <si>
-    <t>5. Student selects a desired exam.</t>
-  </si>
-  <si>
-    <t>4. Student enters a vaid voucher code.</t>
-  </si>
-  <si>
-    <t>5. Student can attend the complete exam and submit the test.</t>
-  </si>
-  <si>
-    <t>Alternate Flow 1: Invalid credentials</t>
-  </si>
-  <si>
-    <t>Student selects sign up and Student option,
-enters some invalid credantials and clicks register.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -144,6 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -160,24 +235,8 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -453,8 +512,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,10 +530,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,35 +567,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,21 +602,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7362825" cy="5048250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -593,79 +679,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,21 +834,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="11" width="7.5703125" customWidth="1"/>
+    <col min="7" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
@@ -859,41 +890,51 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="9">
@@ -998,6 +1039,906 @@
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
     <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1008,151 +1949,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="84.85546875" customWidth="1"/>
     <col min="3" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="25"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="B9" s="25"/>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="25"/>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="25"/>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="25"/>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="25"/>
-    </row>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-    </row>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="35" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="28"/>
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="195">
       <c r="A19" s="29"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="135">
       <c r="A21" s="29"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="135">
       <c r="A23" s="29"/>
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="16"/>
     </row>
@@ -1161,134 +2117,140 @@
       <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="16"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
-        <v>14</v>
+      <c r="A29" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="25"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="26"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="26"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="A47" s="31"/>
       <c r="B47" s="25"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="A48" s="31"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="25"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="29"/>
@@ -1304,7 +2266,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="29"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="29"/>
@@ -1312,7 +2274,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="29"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="29"/>
@@ -1323,22 +2285,20 @@
       <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A61" s="30"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="16"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="25"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="16"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A64" s="27" t="s">
-        <v>14</v>
+      <c r="A64" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B64" s="25"/>
     </row>
@@ -1347,23 +2307,31 @@
       <c r="B65" s="14"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="25"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A67" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="25"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A68" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="25"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="25"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="25"/>
+    </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="72" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="73" spans="1:2" ht="15.75" customHeight="1"/>
@@ -1376,8 +2344,8 @@
     <row r="80" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
     <row r="85" ht="14.25" customHeight="1"/>
     <row r="86" ht="14.25" customHeight="1"/>
     <row r="87" ht="14.25" customHeight="1"/>
@@ -1396,50 +2364,953 @@
     <row r="100" ht="14.25" customHeight="1"/>
     <row r="101" ht="14.25" customHeight="1"/>
     <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:A28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -1542,8 +3413,909 @@
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
     <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>